--- a/docs/bike_diagnosis_questionnaire.xlsx
+++ b/docs/bike_diagnosis_questionnaire.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ringo\opt\tsugie\faceman2\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988FD623-6B15-47B4-BE16-8C9307630700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650F2C4-CD7F-41DB-AFF5-F23249185DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="13410" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="Genres" sheetId="3" r:id="rId3"/>
     <sheet name="WeightsMatrix" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -820,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E13" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -831,7 +844,7 @@
     <col min="3" max="3" width="38.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -845,7 +858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -858,8 +871,12 @@
       <c r="D2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="str">
+        <f>"['id' =&gt; "&amp;$A2&amp;", 'section' =&gt; '"&amp;$B2&amp;"', 'question' =&gt; '"&amp;$C2&amp;"', 'answer_type' =&gt; '"&amp;$D2&amp;"'],"</f>
+        <v>['id' =&gt; 1, 'section' =&gt; '体格', 'question' =&gt; '身長のレンジを選んでください', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -872,8 +889,12 @@
       <c r="D3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E13" si="0">"['id' =&gt; "&amp;$A3&amp;", 'section' =&gt; '"&amp;$B3&amp;"', 'question' =&gt; '"&amp;$C3&amp;"', 'answer_type' =&gt; '"&amp;$D3&amp;"'],"</f>
+        <v>['id' =&gt; 2, 'section' =&gt; '体格', 'question' =&gt; '体重のレンジを選んでください', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -886,8 +907,12 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; 3, 'section' =&gt; '体格', 'question' =&gt; '足つき性（足がべったり着くこと）の重視度', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -900,8 +925,12 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; 4, 'section' =&gt; '経験', 'question' =&gt; 'バイクの運転経験年数', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -914,8 +943,12 @@
       <c r="D6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; 5, 'section' =&gt; '用途', 'question' =&gt; '主な用途（最も近いもの1つ）', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -928,8 +961,12 @@
       <c r="D7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; 6, 'section' =&gt; '環境', 'question' =&gt; '主な走行環境（最も近いもの1つ）', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -942,8 +979,12 @@
       <c r="D8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; 7, 'section' =&gt; '嗜好', 'question' =&gt; '取り回しの軽さ重視度', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -956,8 +997,12 @@
       <c r="D9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; 8, 'section' =&gt; '嗜好', 'question' =&gt; 'デザイン志向に最も近いもの', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -970,8 +1015,12 @@
       <c r="D10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; 9, 'section' =&gt; 'コスト', 'question' =&gt; '維持費の重視度', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -984,8 +1033,12 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; 10, 'section' =&gt; '快適', 'question' =&gt; '積載・快適性の重視度', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -998,8 +1051,12 @@
       <c r="D12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; 11, 'section' =&gt; '制約', 'question' =&gt; '購入予算（万円）', 'answer_type' =&gt; 'single'],</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1011,6 +1068,10 @@
       </c>
       <c r="D13" t="s">
         <v>25</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>['id' =&gt; 12, 'section' =&gt; '免許', 'question' =&gt; '現在の二輪免許区分', 'answer_type' =&gt; 'single'],</v>
       </c>
     </row>
   </sheetData>
